--- a/biology/Zoologie/Bruntonichthys/Bruntonichthys.xlsx
+++ b/biology/Zoologie/Bruntonichthys/Bruntonichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bruntonichthys multidens
 Bruntonichthys est un genre éteint de placodermes arthrodires ayant vécu au Dévonien supérieur, il y a environ 380 Ma (millions d'années).
-Sa seule espèce connue, Bruntonichthys multidens, est présente dans la formation de Gogo en Australie-Occidentale[1].
+Sa seule espèce connue, Bruntonichthys multidens, est présente dans la formation de Gogo en Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Kim Dennis et Roger S. Miles, « New durophagous arthrodires from Gogo, Western Australia », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 69, no 1,‎ mai 1980, p. 43-85 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1111/J.1096-3642.1980.TB01932.X)
 Sur les autres projets Wikimedia :
